--- a/resultaten/BFS solutions/RH BFS results.xlsx
+++ b/resultaten/BFS solutions/RH BFS results.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5F8BA47-EC40-44E8-8C15-E501DC0044AC}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90EA3CE4-99EB-412A-B2F0-FEA2B71CA5F2}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,25 +25,25 @@
     <t>game</t>
   </si>
   <si>
-    <t>Runtime</t>
-  </si>
-  <si>
     <t>moves</t>
   </si>
   <si>
     <t>size of archive</t>
   </si>
   <si>
-    <t>75s</t>
-  </si>
-  <si>
-    <t>16s</t>
-  </si>
-  <si>
-    <t>2.843s</t>
-  </si>
-  <si>
-    <t>4431s</t>
+    <t>Runtime (in s)</t>
+  </si>
+  <si>
+    <t>Column1</t>
+  </si>
+  <si>
+    <t>Column2</t>
+  </si>
+  <si>
+    <t>Column3</t>
+  </si>
+  <si>
+    <t>Column4</t>
   </si>
 </sst>
 </file>
@@ -59,12 +59,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -79,13 +85,34 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="12" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="4">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="15" formatCode="0.00E+00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="17" formatCode="#\ ?/?"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="15" formatCode="0.00E+00"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -96,6 +123,19 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{4F8FC626-1A30-42AB-A3A0-7D67E5EDCCE5}" name="Table3" displayName="Table3" ref="A1:D9" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="A1:D9" xr:uid="{9863DDB4-2F5E-4D37-8211-8F87F18DE639}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{EE721EA0-F770-4215-AB49-A980911DCFF2}" name="Column1"/>
+    <tableColumn id="2" xr3:uid="{6FEE34AB-7337-4FD8-95F3-DAD307A448FA}" name="Column2" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{EBC3E00C-71AE-449D-8593-D55086807516}" name="Column3" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{689DB138-5E8E-4F01-BEE4-BC3535620001}" name="Column4" dataDxfId="1"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -361,106 +401,132 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.42578125" customWidth="1"/>
+    <col min="1" max="1" width="11" customWidth="1"/>
     <col min="2" max="2" width="14" customWidth="1"/>
-    <col min="3" max="3" width="12.85546875" customWidth="1"/>
-    <col min="4" max="4" width="16.5703125" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D2" s="3" t="s">
         <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2">
-        <v>32</v>
-      </c>
-      <c r="D2">
-        <v>8048</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3">
-        <v>14</v>
-      </c>
-      <c r="D3">
-        <v>1974</v>
+        <v>1</v>
+      </c>
+      <c r="B3" s="1">
+        <v>75</v>
+      </c>
+      <c r="C3" s="2">
+        <v>32</v>
+      </c>
+      <c r="D3" s="1">
+        <v>8048</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4">
-        <v>20</v>
-      </c>
-      <c r="D4">
-        <v>521</v>
+        <v>2</v>
+      </c>
+      <c r="B4" s="1">
+        <v>16</v>
+      </c>
+      <c r="C4" s="2">
+        <v>14</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1974</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5">
-        <v>26</v>
-      </c>
-      <c r="D5">
-        <v>191543</v>
+        <v>3</v>
+      </c>
+      <c r="B5" s="1">
+        <v>2.843</v>
+      </c>
+      <c r="C5" s="2">
+        <v>20</v>
+      </c>
+      <c r="D5" s="1">
+        <v>521</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>5</v>
+        <v>4</v>
+      </c>
+      <c r="B6" s="1">
+        <v>4431</v>
+      </c>
+      <c r="C6" s="2">
+        <v>26</v>
+      </c>
+      <c r="D6" s="1">
+        <v>191543</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>6</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="B7" s="1"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="1"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" s="1"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="1"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9">
         <v>7</v>
       </c>
+      <c r="B9" s="1"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>